--- a/ky/downloads/data-excel/6.4.1.2.xlsx
+++ b/ky/downloads/data-excel/6.4.1.2.xlsx
@@ -765,20 +765,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="37.140625" customWidth="1"/>
+    <col min="1" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5">
+    <row r="1" spans="1:17" ht="25.5">
       <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
@@ -794,12 +792,12 @@
       <c r="G1" s="7"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1">
       <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
@@ -848,8 +846,11 @@
       <c r="P3" s="2">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -870,7 +871,7 @@
       <c r="L4" s="11"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -919,8 +920,11 @@
       <c r="P5" s="14">
         <v>2388</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="14">
+        <v>2385.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -969,8 +973,11 @@
       <c r="P6" s="22">
         <v>103.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="22">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1019,8 +1026,11 @@
       <c r="P7" s="22">
         <v>231.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="22">
+        <v>267.89999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -1069,8 +1079,11 @@
       <c r="P8" s="22">
         <v>211.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="22">
+        <v>230.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -1119,8 +1132,11 @@
       <c r="P9" s="22">
         <v>226.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="22">
+        <v>249.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="P10" s="22">
         <v>335.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="22">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1219,8 +1238,11 @@
       <c r="P11" s="22">
         <v>321.10000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="22">
+        <v>334.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -1269,8 +1291,11 @@
       <c r="P12" s="22">
         <v>923</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="22">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1319,8 +1344,11 @@
       <c r="P13" s="22">
         <v>35.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="22">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1369,8 +1397,11 @@
       <c r="P14" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="22">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
@@ -1393,8 +1424,9 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="23"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="23"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>28</v>
       </c>
@@ -1443,8 +1475,11 @@
       <c r="P16" s="24">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="24">
+        <v>26.890545708088244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
@@ -1493,8 +1528,11 @@
       <c r="P17" s="22">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="22">
+        <v>15.490056759274875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>30</v>
       </c>
@@ -1543,8 +1581,11 @@
       <c r="P18" s="22">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="22">
+        <v>22.218388220841799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>31</v>
       </c>
@@ -1593,8 +1634,11 @@
       <c r="P19" s="22">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="22">
+        <v>29.614327895683314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="21" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1687,11 @@
       <c r="P20" s="22">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="22">
+        <v>30.104452089276922</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="21" t="s">
         <v>36</v>
       </c>
@@ -1693,8 +1740,11 @@
       <c r="P21" s="22">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="22">
+        <v>21.825966598728439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="21" t="s">
         <v>33</v>
       </c>
@@ -1743,8 +1793,11 @@
       <c r="P22" s="22">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="22">
+        <v>32.351574864874735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="21" t="s">
         <v>34</v>
       </c>
@@ -1793,8 +1846,11 @@
       <c r="P23" s="22">
         <v>31.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="22">
+        <v>30.810022297218843</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="21" t="s">
         <v>35</v>
       </c>
@@ -1843,8 +1899,11 @@
       <c r="P24" s="22">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1">
+      <c r="Q24" s="22">
+        <v>29.193884213235311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1892,6 +1951,9 @@
       </c>
       <c r="P25" s="25" t="s">
         <v>26</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>7.4362892319581295</v>
       </c>
     </row>
   </sheetData>
